--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_square_root_7.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_square_root_7.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3267"/>
+  <dimension ref="A1:N3268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.096133232116699</v>
+        <v>7.489727020263672</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3729870319366455</v>
+        <v>0.5738809108734131</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4364268779754639</v>
+        <v>0.4773309230804443</v>
       </c>
     </row>
     <row r="8">
@@ -23738,7 +23738,7 @@
         </is>
       </c>
       <c r="B3261" t="n">
-        <v>1.635663962477594e-07</v>
+        <v>1.635032718026095e-07</v>
       </c>
     </row>
     <row r="3262">
@@ -23748,116 +23748,126 @@
         </is>
       </c>
       <c r="B3262" t="n">
-        <v>213457.7142838281</v>
+        <v>214036.7142838282</v>
       </c>
     </row>
     <row r="3263">
       <c r="A3263" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B3263" t="n">
-        <v>147</v>
+        <v>0.9909132027891328</v>
       </c>
     </row>
     <row r="3264">
       <c r="A3264" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B3264" t="n">
-        <v>2896</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3265">
       <c r="A3265" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B3265" t="n">
-        <v>17</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="3266">
       <c r="A3266" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B3266" t="n">
-        <v>6.041303634643555</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3267">
       <c r="A3267" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B3267" t="n">
+        <v>8.854614973068237</v>
+      </c>
+    </row>
+    <row r="3268">
+      <c r="A3268" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B3267" t="inlineStr">
+      <c r="B3268" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C3267" t="inlineStr">
+      <c r="C3268" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D3267" t="inlineStr">
+      <c r="D3268" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E3267" t="inlineStr">
+      <c r="E3268" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F3267" t="inlineStr">
+      <c r="F3268" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G3267" t="inlineStr">
+      <c r="G3268" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H3267" t="inlineStr">
+      <c r="H3268" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I3267" t="inlineStr">
+      <c r="I3268" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J3267" t="inlineStr">
+      <c r="J3268" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K3267" t="inlineStr">
+      <c r="K3268" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L3267" t="inlineStr">
+      <c r="L3268" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M3267" t="inlineStr">
+      <c r="M3268" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N3267" t="inlineStr">
+      <c r="N3268" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_square_root_7.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_square_root_7.qasm_rb2_archsize4_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.489727020263672</v>
+        <v>0.002305030822753906</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5738809108734131</v>
+        <v>0.0006060600280761719</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4773309230804443</v>
+        <v>0.5357499122619629</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 3), (2, 2), (0, 0), (1, 0), (3, 0), (1, 3), (0, 1), (2, 1), (1, 2), (2, 0), (3, 1), (2, 3), (1, 1), (3, 3)]</t>
+          <t>[[0, 2], [0, 3], [2, 2], [0, 0], [1, 0], [3, 0], [1, 3], [0, 1], [2, 1], [1, 2], [2, 0], [3, 1], [2, 3], [1, 1], [3, 3]]</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>[(3, 1), (1, 1), (0, 0), (1, 3), (1, 2), (0, 1), (2, 0), (3, 3), (3, 2), (2, 1), (0, 3), (0, 2), (3, 0), (2, 2), (1, 0)]</t>
+          <t>[[3, 1], [1, 1], [0, 0], [1, 3], [1, 2], [0, 1], [2, 0], [3, 3], [3, 2], [2, 1], [0, 3], [0, 2], [3, 0], [2, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>[(3, 2), (2, 3), (0, 3), (3, 0), (2, 0), (1, 0), (1, 2), (3, 1), (1, 1), (2, 2), (0, 0), (0, 1), (0, 2), (2, 1), (1, 3)]</t>
+          <t>[[3, 2], [2, 3], [0, 3], [3, 0], [2, 0], [1, 0], [1, 2], [3, 1], [1, 1], [2, 2], [0, 0], [0, 1], [0, 2], [2, 1], [1, 3]]</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4836,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>[(3, 1), (1, 1), (0, 0), (1, 3), (1, 2), (0, 1), (2, 0), (3, 3), (3, 2), (2, 1), (0, 3), (0, 2), (3, 0), (2, 2), (1, 0)]</t>
+          <t>[[3, 1], [1, 1], [0, 0], [1, 3], [1, 2], [0, 1], [2, 0], [3, 3], [3, 2], [2, 1], [0, 3], [0, 2], [3, 0], [2, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -6266,7 +6266,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>[(3, 2), (2, 3), (0, 3), (3, 0), (2, 0), (1, 0), (1, 2), (3, 1), (1, 1), (2, 2), (0, 0), (0, 1), (0, 2), (2, 1), (1, 3)]</t>
+          <t>[[3, 2], [2, 3], [0, 3], [3, 0], [2, 0], [1, 0], [1, 2], [3, 1], [1, 1], [2, 2], [0, 0], [0, 1], [0, 2], [2, 1], [1, 3]]</t>
         </is>
       </c>
     </row>
@@ -7528,7 +7528,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>[(3, 1), (1, 1), (0, 0), (1, 3), (1, 2), (0, 1), (2, 0), (3, 3), (3, 2), (2, 1), (0, 3), (0, 2), (3, 0), (2, 2), (1, 0)]</t>
+          <t>[[3, 1], [1, 1], [0, 0], [1, 3], [1, 2], [0, 1], [2, 0], [3, 3], [3, 2], [2, 1], [0, 3], [0, 2], [3, 0], [2, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -8958,7 +8958,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>[(3, 2), (2, 3), (0, 3), (3, 0), (2, 0), (1, 0), (1, 2), (3, 1), (1, 1), (2, 2), (0, 0), (0, 1), (0, 2), (2, 1), (1, 3)]</t>
+          <t>[[3, 2], [2, 3], [0, 3], [3, 0], [2, 0], [1, 0], [1, 2], [3, 1], [1, 1], [2, 2], [0, 0], [0, 1], [0, 2], [2, 1], [1, 3]]</t>
         </is>
       </c>
     </row>
@@ -10220,7 +10220,7 @@
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>[(3, 1), (1, 1), (0, 0), (1, 3), (1, 2), (0, 1), (2, 0), (3, 3), (3, 2), (2, 1), (0, 3), (0, 2), (3, 0), (2, 2), (1, 0)]</t>
+          <t>[[3, 1], [1, 1], [0, 0], [1, 3], [1, 2], [0, 1], [2, 0], [3, 3], [3, 2], [2, 1], [0, 3], [0, 2], [3, 0], [2, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -11650,7 +11650,7 @@
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>[(3, 2), (2, 3), (0, 3), (3, 0), (2, 0), (1, 0), (1, 2), (3, 1), (1, 1), (2, 2), (0, 0), (0, 1), (0, 2), (2, 1), (1, 3)]</t>
+          <t>[[3, 2], [2, 3], [0, 3], [3, 0], [2, 0], [1, 0], [1, 2], [3, 1], [1, 1], [2, 2], [0, 0], [0, 1], [0, 2], [2, 1], [1, 3]]</t>
         </is>
       </c>
     </row>
@@ -12912,7 +12912,7 @@
     <row r="1745">
       <c r="A1745" t="inlineStr">
         <is>
-          <t>[(3, 1), (1, 1), (0, 0), (1, 3), (1, 2), (0, 1), (2, 0), (3, 3), (3, 2), (2, 1), (0, 3), (0, 2), (3, 0), (2, 2), (1, 0)]</t>
+          <t>[[3, 1], [1, 1], [0, 0], [1, 3], [1, 2], [0, 1], [2, 0], [3, 3], [3, 2], [2, 1], [0, 3], [0, 2], [3, 0], [2, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -14342,7 +14342,7 @@
     <row r="1945">
       <c r="A1945" t="inlineStr">
         <is>
-          <t>[(3, 2), (2, 3), (0, 3), (3, 0), (2, 0), (1, 0), (1, 2), (3, 1), (1, 1), (2, 2), (0, 0), (0, 1), (0, 2), (2, 1), (1, 3)]</t>
+          <t>[[3, 2], [2, 3], [0, 3], [3, 0], [2, 0], [1, 0], [1, 2], [3, 1], [1, 1], [2, 2], [0, 0], [0, 1], [0, 2], [2, 1], [1, 3]]</t>
         </is>
       </c>
     </row>
@@ -15604,7 +15604,7 @@
     <row r="2121">
       <c r="A2121" t="inlineStr">
         <is>
-          <t>[(3, 1), (1, 1), (0, 0), (1, 3), (1, 2), (0, 1), (2, 0), (3, 3), (3, 2), (2, 1), (0, 3), (0, 2), (3, 0), (2, 2), (1, 0)]</t>
+          <t>[[3, 1], [1, 1], [0, 0], [1, 3], [1, 2], [0, 1], [2, 0], [3, 3], [3, 2], [2, 1], [0, 3], [0, 2], [3, 0], [2, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -17034,7 +17034,7 @@
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>[(3, 2), (2, 3), (0, 3), (3, 0), (2, 0), (1, 0), (1, 2), (3, 1), (1, 1), (2, 2), (0, 0), (0, 1), (0, 2), (2, 1), (1, 3)]</t>
+          <t>[[3, 2], [2, 3], [0, 3], [3, 0], [2, 0], [1, 0], [1, 2], [3, 1], [1, 1], [2, 2], [0, 0], [0, 1], [0, 2], [2, 1], [1, 3]]</t>
         </is>
       </c>
     </row>
@@ -18296,7 +18296,7 @@
     <row r="2497">
       <c r="A2497" t="inlineStr">
         <is>
-          <t>[(3, 1), (1, 1), (0, 0), (1, 3), (1, 2), (0, 1), (2, 0), (3, 3), (3, 2), (2, 1), (0, 3), (0, 2), (3, 0), (2, 2), (1, 0)]</t>
+          <t>[[3, 1], [1, 1], [0, 0], [1, 3], [1, 2], [0, 1], [2, 0], [3, 3], [3, 2], [2, 1], [0, 3], [0, 2], [3, 0], [2, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -19726,7 +19726,7 @@
     <row r="2697">
       <c r="A2697" t="inlineStr">
         <is>
-          <t>[(3, 2), (2, 3), (0, 3), (3, 0), (2, 0), (1, 0), (1, 2), (3, 1), (1, 1), (2, 2), (0, 0), (0, 1), (0, 2), (2, 1), (1, 3)]</t>
+          <t>[[3, 2], [2, 3], [0, 3], [3, 0], [2, 0], [1, 0], [1, 2], [3, 1], [1, 1], [2, 2], [0, 0], [0, 1], [0, 2], [2, 1], [1, 3]]</t>
         </is>
       </c>
     </row>
@@ -20981,7 +20981,7 @@
     <row r="2872">
       <c r="A2872" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 1), (1, 2), (1, 0), (0, 0), (0, 3), (2, 1), (3, 1), (2, 0), (0, 2), (2, 3), (1, 3), (3, 2), (3, 0), (2, 2)]</t>
+          <t>[[1, 1], [0, 1], [1, 2], [1, 0], [0, 0], [0, 3], [2, 1], [3, 1], [2, 0], [0, 2], [2, 3], [1, 3], [3, 2], [3, 0], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -22376,7 +22376,7 @@
     <row r="3067">
       <c r="A3067" t="inlineStr">
         <is>
-          <t>[(1, 0), (2, 1), (2, 3), (2, 0), (3, 0), (3, 2), (3, 1), (1, 2), (0, 2), (0, 1), (1, 3), (2, 2), (0, 3), (0, 0), (1, 1)]</t>
+          <t>[[1, 0], [2, 1], [2, 3], [2, 0], [3, 0], [3, 2], [3, 1], [1, 2], [0, 2], [0, 1], [1, 3], [2, 2], [0, 3], [0, 0], [1, 1]]</t>
         </is>
       </c>
     </row>
@@ -23798,7 +23798,7 @@
         </is>
       </c>
       <c r="B3267" t="n">
-        <v>8.854614973068237</v>
+        <v>0.6942148208618164</v>
       </c>
     </row>
     <row r="3268">
